--- a/CashFlow/INFO_cashflow.xlsx
+++ b/CashFlow/INFO_cashflow.xlsx
@@ -812,19 +812,19 @@
         </is>
       </c>
       <c r="B7" s="0" t="n">
-        <v>-7600000.0</v>
+        <v>123000000.0</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>-17300000.0</v>
+        <v>125000000.0</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>-37300000.0</v>
+        <v>78700000.0</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>47700000.0</v>
+        <v>124200000.0</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>69000000.0</v>
+        <v>123500000.0</v>
       </c>
       <c r="G7" s="0" t="n">
         <v>11900000.0</v>
